--- a/Sprint 1 Burndown Chart.xlsx
+++ b/Sprint 1 Burndown Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documents\csce315\CSCE-315-Project2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documents\csce315\CSCE-315-Project2-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1698,7 +1698,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="A18" sqref="A18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1937,12 +1937,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>2</v>
       </c>
